--- a/config.xlsx
+++ b/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Hoai2005</t>
   </si>
   <si>
-    <t>https://www.yodobashi.com/product/100000001006404769</t>
+    <t>https://www.yodobashi.com/product/100000001004518517</t>
+  </si>
+  <si>
+    <t>https://www.yodobashi.com/product/100000001006404769, https://www.yodobashi.com/product/100000001004518517</t>
   </si>
 </sst>
 </file>
@@ -439,19 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" activeCellId="1" sqref="A3 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.25" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -488,16 +491,35 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.yodobashi.com/product/100000001006404769"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
